--- a/NformTester/NformTester/Keywordscripts/900.30.80_Multi-alarmsManagement.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.80_Multi-alarmsManagement.xlsx
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8329" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8329" uniqueCount="900">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4015,6 +4015,10 @@
   </si>
   <si>
     <t>F</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4595,7 +4599,7 @@
   <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5117,7 +5121,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>846</v>
+        <v>899</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>19</v>
@@ -5147,7 +5151,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>846</v>
+        <v>899</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>19</v>

--- a/NformTester/NformTester/Keywordscripts/900.30.80_Multi-alarmsManagement.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.80_Multi-alarmsManagement.xlsx
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8329" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8329" uniqueCount="901">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3986,39 +3986,43 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>$SNMP_GXT_Ip_Port$</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Trap$</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Scenario 3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Scenario 7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Trap_GXT_Trap$</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Running Range</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Scenario 3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Scenario 7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
+    <t>$Trap_GXT_Port$</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4093,6 +4097,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4213,7 +4218,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4224,8 +4229,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4285,10 +4293,12 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4598,8 +4608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4789,7 +4799,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>632</v>
@@ -4801,11 +4811,11 @@
       <c r="H6" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>892</v>
+      <c r="I6" s="23" t="s">
+        <v>898</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>899</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>854</v>
@@ -4848,7 +4858,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -5069,13 +5079,13 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I15" s="9">
         <v>1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -5121,7 +5131,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>19</v>
@@ -5151,7 +5161,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>19</v>
@@ -5401,13 +5411,13 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I27" s="9">
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -5453,13 +5463,13 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I29" s="9">
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -5825,13 +5835,13 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="9" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I43" s="9">
         <v>1</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -5853,13 +5863,13 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="9" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I44" s="9">
         <v>1</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -5881,13 +5891,13 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="9" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I45" s="9">
         <v>1</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -6033,7 +6043,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="4"/>
@@ -6061,13 +6071,13 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I52" s="9">
         <v>1</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -6269,13 +6279,13 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I60" s="9">
         <v>1</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -6297,13 +6307,13 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I61" s="9">
         <v>1</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -6325,13 +6335,13 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I62" s="9">
         <v>1</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -6503,13 +6513,13 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I69" s="9">
         <v>1</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -6531,13 +6541,13 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I70" s="9">
         <v>1</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -6559,13 +6569,13 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I71" s="9">
         <v>1</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -6737,13 +6747,13 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I78" s="9">
         <v>1</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -6985,13 +6995,13 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I88" s="9">
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -7087,13 +7097,13 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I92" s="9">
         <v>1</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -7291,7 +7301,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="4"/>
@@ -7317,13 +7327,13 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="9" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I101" s="9">
         <v>1</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -7646,8 +7656,8 @@
       <c r="G114" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>892</v>
+      <c r="H114" s="23" t="s">
+        <v>899</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="4"/>
@@ -8078,8 +8088,8 @@
       <c r="G132" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H132" s="4" t="s">
-        <v>892</v>
+      <c r="H132" s="23" t="s">
+        <v>899</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="4"/>
